--- a/exports/L145-tok-result-csv.xlsx
+++ b/exports/L145-tok-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAE8E3-031B-D64D-B38F-5819CD1C0BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54446596-F59C-2746-85A0-D8CEF60D08BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C4A7B66A-9FFD-8F44-A927-ED34D352712D}"/>
+    <workbookView xWindow="5820" yWindow="6660" windowWidth="28040" windowHeight="17040" xr2:uid="{C4A7B66A-9FFD-8F44-A927-ED34D352712D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2647,7 +2647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2657,9 +2657,16 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2673,7 +2680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2681,16 +2688,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3013,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC31B2CC-461F-064F-A2E6-E30794D1A4A3}">
   <dimension ref="A1:O371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:XFD173"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,56 +3047,56 @@
     <col min="6" max="6" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4773,20 +4793,20 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="3" t="s">
         <v>246</v>
       </c>
     </row>
